--- a/results/During 2nd sem without tuition_cv_3.xlsx
+++ b/results/During 2nd sem without tuition_cv_3.xlsx
@@ -67,22 +67,22 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>{'max_depth': 5, 'min_samples_split': 10}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.05, 'num_leaves': 50}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(max_depth=5, min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='log2', n_estimators=200)</t>
+    <t>{'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 250}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 100, 'num_leaves': 50}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(max_depth=5, min_samples_leaf=2, min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_depth=25, n_estimators=250)</t>
   </si>
   <si>
     <t>LGBMClassifier(learning_rate=0.05, num_leaves=50)</t>
@@ -93,11 +93,11 @@
               colsample_bytree=None, device=None, early_stopping_rounds=None,
               enable_categorical=True, eval_metric=None, feature_types=None,
               gamma=None, grow_policy=None, importance_type=None,
-              interaction_constraints=None, learning_rate=None, max_bin=None,
+              interaction_constraints=None, learning_rate=0.1, max_bin=None,
               max_cat_threshold=None, max_cat_to_onehot=None,
               max_delta_step=None, max_depth=3, max_leaves=None,
               min_child_weight=None, missing=nan, monotone_constraints=None,
-              multi_strategy=None, n_estimators=100, n_jobs=None,
+              multi_strategy=None, n_estimators=150, n_jobs=None,
               num_parallel_tree=None, random_state=None, ...)</t>
   </si>
   <si>
@@ -105,7 +105,7 @@
  [ 34 415]]</t>
   </si>
   <si>
-    <t>[[209  68]
+    <t>[[215  62]
  [ 24 425]]</t>
   </si>
   <si>
@@ -113,8 +113,8 @@
  [ 28 421]]</t>
   </si>
   <si>
-    <t>[[223  54]
- [ 32 417]]</t>
+    <t>[[221  56]
+ [ 28 421]]</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
         <v>0.8441678751674609</v>
       </c>
       <c r="M2">
-        <v>1.10846996307373</v>
+        <v>17.63518118858337</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -568,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.8687984358336296</v>
+        <v>0.8715535015997155</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -580,25 +580,25 @@
         <v>425</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>24</v>
       </c>
       <c r="I3">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J3">
-        <v>0.8753950091956468</v>
+        <v>0.882950251734535</v>
       </c>
       <c r="K3">
-        <v>0.8732782369146006</v>
+        <v>0.8815426997245179</v>
       </c>
       <c r="L3">
-        <v>0.8707713395407118</v>
+        <v>0.8795854818582091</v>
       </c>
       <c r="M3">
-        <v>26.62297320365906</v>
+        <v>626.4200420379639</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -639,7 +639,7 @@
         <v>0.8887464104625692</v>
       </c>
       <c r="M4">
-        <v>8.675363302230835</v>
+        <v>217.9192698001862</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -650,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.867767507998578</v>
+        <v>0.8749946676146463</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -659,28 +659,28 @@
         <v>28</v>
       </c>
       <c r="F5">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J5">
-        <v>0.8812141992836158</v>
+        <v>0.8844884536673994</v>
       </c>
       <c r="K5">
-        <v>0.8815426997245179</v>
+        <v>0.8842975206611571</v>
       </c>
       <c r="L5">
-        <v>0.8805097319295364</v>
+        <v>0.8829672685356211</v>
       </c>
       <c r="M5">
-        <v>9.415794134140015</v>
+        <v>265.2381844520569</v>
       </c>
     </row>
   </sheetData>
